--- a/工程文書/仕様書/社員管理.xlsx
+++ b/工程文書/仕様書/社員管理.xlsx
@@ -1,38 +1,295 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="仕様書" sheetId="1" r:id="rId1"/>
+    <sheet name="UTテスト" sheetId="2" r:id="rId2"/>
+    <sheet name="ITテスト" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">UTテスト!$A$1:$M$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">仕様書!$A$1:$T$71</definedName>
+  </definedNames>
+  <calcPr calcId="122211"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+  <si>
+    <t>仕様書番号：penny00001</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1, 現在の社員番号は、手入力するので、不便です。</t>
+    <rPh sb="3" eb="5">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>フベン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正後</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作者</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>确</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>认者</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>确</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>认日</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>1， 登</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 系</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2， </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>选择员工管理</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>3， 点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>击增加员工</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>4， 各</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>项目输入</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>5， 点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>击生成按钮</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>6， 点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>击保存</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7， 回到index。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -40,23 +297,447 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>244930</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>118765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="884464"/>
+          <a:ext cx="10450286" cy="5425551"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>597776</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>26276</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>558362</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>111673</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1964121" y="1905000"/>
+          <a:ext cx="1326931" cy="256190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>118241</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>59121</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>78827</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>151086</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形标注 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3534103" y="1425466"/>
+          <a:ext cx="1326931" cy="433551"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -73803"/>
+            <a:gd name="adj2" fmla="val 74621"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>手入力する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>151086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>244929</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>99058</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6470431"/>
+          <a:ext cx="10492515" cy="5242558"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>420413</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>170793</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>328448</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>98534</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="圆角矩形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3153103" y="7514896"/>
+          <a:ext cx="591207" cy="269328"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>生成</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>282465</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>32844</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>610914</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>131380</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="矩形标注 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3698327" y="6693775"/>
+          <a:ext cx="2377966" cy="781708"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -72235"/>
+            <a:gd name="adj2" fmla="val 69295"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>このボタンをクリックして、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>随机六位数自动生成。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>工号字段改成只读</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -98,7 +779,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +814,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +1022,200 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P38"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="62" orientation="portrait" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="16" max="70" man="1"/>
+  </colBreaks>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="16.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="76" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>